--- a/natmiOut/OldD4/LR-pairs_lrc2p/Nlgn3-Nrxn2.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Nlgn3-Nrxn2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,9 +76,18 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>M1</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -86,9 +95,6 @@
   </si>
   <si>
     <t>Nrxn2</t>
-  </si>
-  <si>
-    <t>FAPs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.0655828026778615</v>
+        <v>0.126926</v>
       </c>
       <c r="H2">
-        <v>0.0655828026778615</v>
+        <v>0.380778</v>
       </c>
       <c r="I2">
-        <v>0.0816937661385551</v>
+        <v>0.09915490815857943</v>
       </c>
       <c r="J2">
-        <v>0.0816937661385551</v>
+        <v>0.124314443606855</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.449895154248019</v>
+        <v>0.2569163333333334</v>
       </c>
       <c r="N2">
-        <v>0.449895154248019</v>
+        <v>0.770749</v>
       </c>
       <c r="O2">
-        <v>0.5622219678444856</v>
+        <v>0.2154602692984302</v>
       </c>
       <c r="P2">
-        <v>0.5622219678444856</v>
+        <v>0.2443643158836536</v>
       </c>
       <c r="Q2">
-        <v>0.02950538512677389</v>
+        <v>0.03260936252466667</v>
       </c>
       <c r="R2">
-        <v>0.02950538512677389</v>
+        <v>0.293484262722</v>
       </c>
       <c r="S2">
-        <v>0.04593002995904565</v>
+        <v>0.02136394321410864</v>
       </c>
       <c r="T2">
-        <v>0.04593002995904565</v>
+        <v>0.03037801396644617</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,123 +587,123 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.0655828026778615</v>
+        <v>0.126926</v>
       </c>
       <c r="H3">
-        <v>0.0655828026778615</v>
+        <v>0.380778</v>
       </c>
       <c r="I3">
-        <v>0.0816937661385551</v>
+        <v>0.09915490815857943</v>
       </c>
       <c r="J3">
-        <v>0.0816937661385551</v>
+        <v>0.124314443606855</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.350313980184919</v>
+        <v>0.5123676666666667</v>
       </c>
       <c r="N3">
-        <v>0.350313980184919</v>
+        <v>1.537103</v>
       </c>
       <c r="O3">
-        <v>0.4377780321555143</v>
+        <v>0.4296919312505433</v>
       </c>
       <c r="P3">
-        <v>0.4377780321555143</v>
+        <v>0.4873352064520506</v>
       </c>
       <c r="Q3">
-        <v>0.02297457263776383</v>
+        <v>0.06503277845933333</v>
       </c>
       <c r="R3">
-        <v>0.02297457263776383</v>
+        <v>0.5852950061340001</v>
       </c>
       <c r="S3">
-        <v>0.03576373617950943</v>
+        <v>0.04260606397963024</v>
       </c>
       <c r="T3">
-        <v>0.03576373617950943</v>
+        <v>0.06058280504011851</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.737205534520733</v>
+        <v>0.126926</v>
       </c>
       <c r="H4">
-        <v>0.737205534520733</v>
+        <v>0.380778</v>
       </c>
       <c r="I4">
-        <v>0.9183062338614448</v>
+        <v>0.09915490815857943</v>
       </c>
       <c r="J4">
-        <v>0.9183062338614448</v>
+        <v>0.124314443606855</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.449895154248019</v>
+        <v>0.423123</v>
       </c>
       <c r="N4">
-        <v>0.449895154248019</v>
+        <v>0.8462460000000001</v>
       </c>
       <c r="O4">
-        <v>0.5622219678444856</v>
+        <v>0.3548477994510263</v>
       </c>
       <c r="P4">
-        <v>0.5622219678444856</v>
+        <v>0.2683004776642958</v>
       </c>
       <c r="Q4">
-        <v>0.3316651976656985</v>
+        <v>0.05370530989800001</v>
       </c>
       <c r="R4">
-        <v>0.3316651976656985</v>
+        <v>0.322231859388</v>
       </c>
       <c r="S4">
-        <v>0.5162919378854399</v>
+        <v>0.03518490096484053</v>
       </c>
       <c r="T4">
-        <v>0.5162919378854399</v>
+        <v>0.03335362460029037</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,61 +711,743 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G5">
+        <v>0.2188896666666666</v>
+      </c>
+      <c r="H5">
+        <v>0.6566689999999999</v>
+      </c>
+      <c r="I5">
+        <v>0.1709971542095031</v>
+      </c>
+      <c r="J5">
+        <v>0.2143859187475902</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M5">
+        <v>0.2569163333333334</v>
+      </c>
+      <c r="N5">
+        <v>0.770749</v>
+      </c>
+      <c r="O5">
+        <v>0.2154602692984302</v>
+      </c>
+      <c r="P5">
+        <v>0.2443643158836536</v>
+      </c>
+      <c r="Q5">
+        <v>0.05623633056455556</v>
+      </c>
+      <c r="R5">
+        <v>0.506126975081</v>
+      </c>
+      <c r="S5">
+        <v>0.03684309289524475</v>
+      </c>
+      <c r="T5">
+        <v>0.05238826836984341</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G6">
+        <v>0.2188896666666666</v>
+      </c>
+      <c r="H6">
+        <v>0.6566689999999999</v>
+      </c>
+      <c r="I6">
+        <v>0.1709971542095031</v>
+      </c>
+      <c r="J6">
+        <v>0.2143859187475902</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>0.5123676666666667</v>
+      </c>
+      <c r="N6">
+        <v>1.537103</v>
+      </c>
+      <c r="O6">
+        <v>0.4296919312505433</v>
+      </c>
+      <c r="P6">
+        <v>0.4873352064520506</v>
+      </c>
+      <c r="Q6">
+        <v>0.1121519877674444</v>
+      </c>
+      <c r="R6">
+        <v>1.009367889907</v>
+      </c>
+      <c r="S6">
+        <v>0.07347609743062836</v>
+      </c>
+      <c r="T6">
+        <v>0.1044778059732694</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G7">
+        <v>0.2188896666666666</v>
+      </c>
+      <c r="H7">
+        <v>0.6566689999999999</v>
+      </c>
+      <c r="I7">
+        <v>0.1709971542095031</v>
+      </c>
+      <c r="J7">
+        <v>0.2143859187475902</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.423123</v>
+      </c>
+      <c r="N7">
+        <v>0.8462460000000001</v>
+      </c>
+      <c r="O7">
+        <v>0.3548477994510263</v>
+      </c>
+      <c r="P7">
+        <v>0.2683004776642958</v>
+      </c>
+      <c r="Q7">
+        <v>0.092617252429</v>
+      </c>
+      <c r="R7">
+        <v>0.555703514574</v>
+      </c>
+      <c r="S7">
+        <v>0.06067796388362999</v>
+      </c>
+      <c r="T7">
+        <v>0.05751984440447734</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0.106095</v>
+      </c>
+      <c r="H8">
+        <v>0.318285</v>
+      </c>
+      <c r="I8">
+        <v>0.08288167893957489</v>
+      </c>
+      <c r="J8">
+        <v>0.1039120502849636</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>0.2569163333333334</v>
+      </c>
+      <c r="N8">
+        <v>0.770749</v>
+      </c>
+      <c r="O8">
+        <v>0.2154602692984302</v>
+      </c>
+      <c r="P8">
+        <v>0.2443643158836536</v>
+      </c>
+      <c r="Q8">
+        <v>0.027257538385</v>
+      </c>
+      <c r="R8">
+        <v>0.245317845465</v>
+      </c>
+      <c r="S8">
+        <v>0.01785770886422684</v>
+      </c>
+      <c r="T8">
+        <v>0.02539239707995293</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.106095</v>
+      </c>
+      <c r="H9">
+        <v>0.318285</v>
+      </c>
+      <c r="I9">
+        <v>0.08288167893957489</v>
+      </c>
+      <c r="J9">
+        <v>0.1039120502849636</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.5123676666666667</v>
+      </c>
+      <c r="N9">
+        <v>1.537103</v>
+      </c>
+      <c r="O9">
+        <v>0.4296919312505433</v>
+      </c>
+      <c r="P9">
+        <v>0.4873352064520506</v>
+      </c>
+      <c r="Q9">
+        <v>0.054359647595</v>
+      </c>
+      <c r="R9">
+        <v>0.489236828355</v>
+      </c>
+      <c r="S9">
+        <v>0.03561358868883342</v>
+      </c>
+      <c r="T9">
+        <v>0.05064000047847859</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.106095</v>
+      </c>
+      <c r="H10">
+        <v>0.318285</v>
+      </c>
+      <c r="I10">
+        <v>0.08288167893957489</v>
+      </c>
+      <c r="J10">
+        <v>0.1039120502849636</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.423123</v>
+      </c>
+      <c r="N10">
+        <v>0.8462460000000001</v>
+      </c>
+      <c r="O10">
+        <v>0.3548477994510263</v>
+      </c>
+      <c r="P10">
+        <v>0.2683004776642958</v>
+      </c>
+      <c r="Q10">
+        <v>0.044891234685</v>
+      </c>
+      <c r="R10">
+        <v>0.26934740811</v>
+      </c>
+      <c r="S10">
+        <v>0.02941038138651463</v>
+      </c>
+      <c r="T10">
+        <v>0.02787965272653205</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.05095666666666667</v>
+      </c>
+      <c r="H11">
+        <v>0.15287</v>
+      </c>
+      <c r="I11">
+        <v>0.03980747524857538</v>
+      </c>
+      <c r="J11">
+        <v>0.04990821159357928</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M11">
+        <v>0.2569163333333334</v>
+      </c>
+      <c r="N11">
+        <v>0.770749</v>
+      </c>
+      <c r="O11">
+        <v>0.2154602692984302</v>
+      </c>
+      <c r="P11">
+        <v>0.2443643158836536</v>
+      </c>
+      <c r="Q11">
+        <v>0.01309159995888889</v>
+      </c>
+      <c r="R11">
+        <v>0.11782439963</v>
+      </c>
+      <c r="S11">
+        <v>0.008576929337148648</v>
+      </c>
+      <c r="T11">
+        <v>0.01219578598304163</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
         <v>21</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>0.737205534520733</v>
-      </c>
-      <c r="H5">
-        <v>0.737205534520733</v>
-      </c>
-      <c r="I5">
-        <v>0.9183062338614448</v>
-      </c>
-      <c r="J5">
-        <v>0.9183062338614448</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>0.350313980184919</v>
-      </c>
-      <c r="N5">
-        <v>0.350313980184919</v>
-      </c>
-      <c r="O5">
-        <v>0.4377780321555143</v>
-      </c>
-      <c r="P5">
-        <v>0.4377780321555143</v>
-      </c>
-      <c r="Q5">
-        <v>0.2582534050123087</v>
-      </c>
-      <c r="R5">
-        <v>0.2582534050123087</v>
-      </c>
-      <c r="S5">
-        <v>0.4020142959760048</v>
-      </c>
-      <c r="T5">
-        <v>0.4020142959760048</v>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.05095666666666667</v>
+      </c>
+      <c r="H12">
+        <v>0.15287</v>
+      </c>
+      <c r="I12">
+        <v>0.03980747524857538</v>
+      </c>
+      <c r="J12">
+        <v>0.04990821159357928</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0.5123676666666667</v>
+      </c>
+      <c r="N12">
+        <v>1.537103</v>
+      </c>
+      <c r="O12">
+        <v>0.4296919312505433</v>
+      </c>
+      <c r="P12">
+        <v>0.4873352064520506</v>
+      </c>
+      <c r="Q12">
+        <v>0.02610854840111111</v>
+      </c>
+      <c r="R12">
+        <v>0.23497693561</v>
+      </c>
+      <c r="S12">
+        <v>0.01710495091776856</v>
+      </c>
+      <c r="T12">
+        <v>0.02432202860060959</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.05095666666666667</v>
+      </c>
+      <c r="H13">
+        <v>0.15287</v>
+      </c>
+      <c r="I13">
+        <v>0.03980747524857538</v>
+      </c>
+      <c r="J13">
+        <v>0.04990821159357928</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.423123</v>
+      </c>
+      <c r="N13">
+        <v>0.8462460000000001</v>
+      </c>
+      <c r="O13">
+        <v>0.3548477994510263</v>
+      </c>
+      <c r="P13">
+        <v>0.2683004776642958</v>
+      </c>
+      <c r="Q13">
+        <v>0.02156093767</v>
+      </c>
+      <c r="R13">
+        <v>0.12936562602</v>
+      </c>
+      <c r="S13">
+        <v>0.01412559499365817</v>
+      </c>
+      <c r="T13">
+        <v>0.01339039700992807</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.7772105</v>
+      </c>
+      <c r="H14">
+        <v>1.554421</v>
+      </c>
+      <c r="I14">
+        <v>0.6071587834437672</v>
+      </c>
+      <c r="J14">
+        <v>0.5074793757670119</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.2569163333333334</v>
+      </c>
+      <c r="N14">
+        <v>0.770749</v>
+      </c>
+      <c r="O14">
+        <v>0.2154602692984302</v>
+      </c>
+      <c r="P14">
+        <v>0.2443643158836536</v>
+      </c>
+      <c r="Q14">
+        <v>0.1996780718881667</v>
+      </c>
+      <c r="R14">
+        <v>1.198068431329</v>
+      </c>
+      <c r="S14">
+        <v>0.1308185949877013</v>
+      </c>
+      <c r="T14">
+        <v>0.1240098504843694</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.7772105</v>
+      </c>
+      <c r="H15">
+        <v>1.554421</v>
+      </c>
+      <c r="I15">
+        <v>0.6071587834437672</v>
+      </c>
+      <c r="J15">
+        <v>0.5074793757670119</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.5123676666666667</v>
+      </c>
+      <c r="N15">
+        <v>1.537103</v>
+      </c>
+      <c r="O15">
+        <v>0.4296919312505433</v>
+      </c>
+      <c r="P15">
+        <v>0.4873352064520506</v>
+      </c>
+      <c r="Q15">
+        <v>0.3982175303938333</v>
+      </c>
+      <c r="R15">
+        <v>2.389305182363</v>
+      </c>
+      <c r="S15">
+        <v>0.2608912302336827</v>
+      </c>
+      <c r="T15">
+        <v>0.2473125663595745</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.7772105</v>
+      </c>
+      <c r="H16">
+        <v>1.554421</v>
+      </c>
+      <c r="I16">
+        <v>0.6071587834437672</v>
+      </c>
+      <c r="J16">
+        <v>0.5074793757670119</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.423123</v>
+      </c>
+      <c r="N16">
+        <v>0.8462460000000001</v>
+      </c>
+      <c r="O16">
+        <v>0.3548477994510263</v>
+      </c>
+      <c r="P16">
+        <v>0.2683004776642958</v>
+      </c>
+      <c r="Q16">
+        <v>0.3288556383915</v>
+      </c>
+      <c r="R16">
+        <v>1.315422553566</v>
+      </c>
+      <c r="S16">
+        <v>0.215448958222383</v>
+      </c>
+      <c r="T16">
+        <v>0.1361569589230679</v>
       </c>
     </row>
   </sheetData>
